--- a/data/trans_orig/P78C10_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C10_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1FD5A13-7612-4433-B46D-E98A66D1ECD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF6FA087-91E9-4FA3-A3E2-DD018AA2C602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54161C12-FEF9-43FB-8880-E911E8808094}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{38588659-8264-40AB-8309-281DE00EDFAA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de otros asuntos en 2023 (Tasa respuesta: 3,82%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,52 +134,58 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -206,58 +212,58 @@
     <t>9,05%</t>
   </si>
   <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -672,7 +678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59DA5B3-DA67-42E7-A4F3-91A0BDE3B9CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FEB27D-5117-49E2-8874-D57AD82579E9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -793,7 +799,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>25937</v>
+        <v>22081</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -808,7 +814,7 @@
         <v>81</v>
       </c>
       <c r="I4" s="7">
-        <v>51886</v>
+        <v>44753</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -823,7 +829,7 @@
         <v>110</v>
       </c>
       <c r="N4" s="7">
-        <v>77823</v>
+        <v>66834</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -844,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>10561</v>
+        <v>9834</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -859,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>6129</v>
+        <v>5492</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -874,7 +880,7 @@
         <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>16690</v>
+        <v>15326</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -895,7 +901,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="7">
-        <v>36498</v>
+        <v>31915</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -910,7 +916,7 @@
         <v>90</v>
       </c>
       <c r="I6" s="7">
-        <v>58015</v>
+        <v>50245</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -925,7 +931,7 @@
         <v>129</v>
       </c>
       <c r="N6" s="7">
-        <v>94513</v>
+        <v>82160</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -948,7 +954,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="7">
-        <v>89998</v>
+        <v>78807</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -963,7 +969,7 @@
         <v>75</v>
       </c>
       <c r="I7" s="7">
-        <v>60580</v>
+        <v>50939</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -978,7 +984,7 @@
         <v>155</v>
       </c>
       <c r="N7" s="7">
-        <v>150578</v>
+        <v>129746</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -987,7 +993,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -999,46 +1005,46 @@
         <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>14684</v>
+        <v>14874</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
       </c>
       <c r="I8" s="7">
-        <v>16079</v>
+        <v>16913</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
       </c>
       <c r="N8" s="7">
-        <v>30763</v>
+        <v>31786</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1050,7 +1056,7 @@
         <v>91</v>
       </c>
       <c r="D9" s="7">
-        <v>104682</v>
+        <v>93681</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1065,7 +1071,7 @@
         <v>94</v>
       </c>
       <c r="I9" s="7">
-        <v>76659</v>
+        <v>67852</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1080,7 +1086,7 @@
         <v>185</v>
       </c>
       <c r="N9" s="7">
-        <v>181341</v>
+        <v>161532</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1094,7 +1100,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1103,13 +1109,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>11346</v>
+        <v>10361</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -1118,13 +1124,13 @@
         <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>8939</v>
+        <v>7806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -1133,13 +1139,13 @@
         <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>20285</v>
+        <v>18167</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -1157,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1172,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1187,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1205,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>11346</v>
+        <v>10361</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1220,7 +1226,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>8939</v>
+        <v>7806</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1235,7 +1241,7 @@
         <v>20</v>
       </c>
       <c r="N12" s="7">
-        <v>20285</v>
+        <v>18167</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1258,46 +1264,46 @@
         <v>119</v>
       </c>
       <c r="D13" s="7">
-        <v>127281</v>
+        <v>111250</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>166</v>
       </c>
       <c r="I13" s="7">
-        <v>121406</v>
+        <v>103497</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>285</v>
       </c>
       <c r="N13" s="7">
-        <v>248687</v>
+        <v>214748</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1309,46 +1315,46 @@
         <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>25245</v>
+        <v>24707</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>22208</v>
+        <v>22405</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
       </c>
       <c r="N14" s="7">
-        <v>47453</v>
+        <v>47112</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,7 +1366,7 @@
         <v>140</v>
       </c>
       <c r="D15" s="7">
-        <v>152526</v>
+        <v>135957</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1375,7 +1381,7 @@
         <v>194</v>
       </c>
       <c r="I15" s="7">
-        <v>143614</v>
+        <v>125902</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1390,7 +1396,7 @@
         <v>334</v>
       </c>
       <c r="N15" s="7">
-        <v>296140</v>
+        <v>261860</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1404,7 +1410,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
